--- a/semestr-4/ТПР/ВыборБарбершопа.xlsx
+++ b/semestr-4/ТПР/ВыборБарбершопа.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemX\Documents\GitHub\Practic_MIREA\semestr-4\ТПР\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F338DAD-637D-4944-A419-C315C28A9C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Лист1!$D$17:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$D$33:$I$44</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -111,14 +117,22 @@
   </si>
   <si>
     <t>BomboKlak</t>
+  </si>
+  <si>
+    <t>Таблица Попарное сравнение альтернатив:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вывод парето-оптимальных альтернатив</t>
+  </si>
+  <si>
+    <t>Результат указания верхней/нижней границы: ('Средний чек (руб.)' &gt;= 1700 , 'Удалённость локации (км)' &lt; 4.30)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +152,20 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -148,21 +176,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFce6dff"/>
+        <fgColor rgb="FFCE6DFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5794d7"/>
+        <fgColor rgb="FF5794D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92d050"/>
+        <fgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -312,135 +340,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -451,10 +510,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -492,71 +551,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,7 +643,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -607,11 +666,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -620,13 +679,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -636,7 +695,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -645,7 +704,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -654,7 +713,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -662,10 +721,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -730,41 +789,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="36" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="36" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="37" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="38" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="37" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="38" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="22" width="13.5703125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -788,22 +835,22 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
+    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="9"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -818,672 +865,673 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="55.5">
+    <row r="3" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="N3" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
+    <row r="4" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="10">
         <v>2300</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="11">
         <v>4.3</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <v>16</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <v>4.8</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
+    <row r="5" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>1800</v>
       </c>
-      <c r="G5" s="16">
-        <v>2.3</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="G5" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H5" s="10">
         <v>17</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="15">
         <v>5</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="22" t="s">
+      <c r="L5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5">
+    <row r="6" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>1700</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>2.7</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>20</v>
       </c>
-      <c r="I6" s="17">
-        <v>4.9</v>
+      <c r="I6" s="12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="22" t="s">
+      <c r="M6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5">
+    <row r="7" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="10">
         <v>1200</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>1.6</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <v>13</v>
       </c>
-      <c r="I7" s="17">
-        <v>4.4</v>
+      <c r="I7" s="12">
+        <v>4.4000000000000004</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="22" t="s">
+      <c r="M7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
+    <row r="8" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="10">
         <v>800</v>
       </c>
-      <c r="G8" s="16">
-        <v>9.3</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H8" s="10">
         <v>8</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="12">
         <v>3.8</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="22" t="s">
+      <c r="L8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5">
+    <row r="9" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="10">
         <v>1950</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <v>16</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="15">
         <v>5</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="22" t="s">
+      <c r="L9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5">
+    <row r="10" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="10">
         <v>500</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>11.1</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="10">
         <v>4</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="12">
         <v>2.7</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="22" t="s">
+      <c r="M10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
+    <row r="11" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="10">
         <v>2600</v>
       </c>
-      <c r="G11" s="16">
-        <v>2.3</v>
-      </c>
-      <c r="H11" s="15">
-        <v>22</v>
-      </c>
-      <c r="I11" s="17">
-        <v>4.9</v>
+      <c r="G11" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H11" s="10">
+        <v>22</v>
+      </c>
+      <c r="I11" s="12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="22" t="s">
+      <c r="L11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="22.5">
+    <row r="12" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="10">
         <v>1400</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="11">
         <v>5.8</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="10">
         <v>16</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="12">
         <v>4.8</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="22" t="s">
+      <c r="L12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
+    <row r="13" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="21">
         <v>3500</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="22">
         <v>3.2</v>
       </c>
-      <c r="H13" s="26">
-        <v>19</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="H13" s="21">
+        <v>19</v>
+      </c>
+      <c r="I13" s="23">
         <v>4.7</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="22" t="s">
+      <c r="L13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
+    <row r="14" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="23" t="s">
+      <c r="L14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S14" s="23" t="s">
+      <c r="O14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="U14" s="22" t="s">
+      <c r="T14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="22.5">
+    <row r="15" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1498,16 +1546,18 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.5">
+    <row r="16" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1522,22 +1572,22 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="22.5">
+    <row r="17" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1552,22 +1602,22 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="55.5">
+    <row r="18" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="1"/>
@@ -1584,26 +1634,26 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
+    <row r="19" spans="1:22" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="10">
         <v>2300</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="11">
         <v>4.3</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="10">
         <v>16</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="12">
         <v>4.8</v>
       </c>
       <c r="J19" s="1"/>
@@ -1620,26 +1670,26 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="22.5">
+    <row r="20" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="10">
         <v>1800</v>
       </c>
-      <c r="G20" s="16">
-        <v>2.3</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="G20" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H20" s="10">
         <v>17</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="15">
         <v>5</v>
       </c>
       <c r="J20" s="1"/>
@@ -1656,27 +1706,27 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="22.5">
+    <row r="21" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="10">
         <v>1700</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="11">
         <v>2.7</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="10">
         <v>20</v>
       </c>
-      <c r="I21" s="17">
-        <v>4.9</v>
+      <c r="I21" s="12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1692,27 +1742,27 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
+    <row r="22" spans="1:22" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="10">
         <v>1200</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="11">
         <v>1.6</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="10">
         <v>13</v>
       </c>
-      <c r="I22" s="17">
-        <v>4.4</v>
+      <c r="I22" s="12">
+        <v>4.4000000000000004</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1728,26 +1778,26 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
+    <row r="23" spans="1:22" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="10">
         <v>800</v>
       </c>
-      <c r="G23" s="16">
-        <v>9.3</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="G23" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H23" s="10">
         <v>8</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="12">
         <v>3.8</v>
       </c>
       <c r="J23" s="1"/>
@@ -1764,26 +1814,26 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="22.5">
+    <row r="24" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="10">
         <v>1950</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="10">
         <v>2</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="10">
         <v>16</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="15">
         <v>5</v>
       </c>
       <c r="J24" s="1"/>
@@ -1800,26 +1850,26 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
+    <row r="25" spans="1:22" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="10">
         <v>500</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="11">
         <v>11.1</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="10">
         <v>4</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="12">
         <v>2.7</v>
       </c>
       <c r="J25" s="1"/>
@@ -1836,27 +1886,27 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="22.5">
+    <row r="26" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="10">
         <v>2600</v>
       </c>
-      <c r="G26" s="16">
-        <v>2.3</v>
-      </c>
-      <c r="H26" s="15">
-        <v>22</v>
-      </c>
-      <c r="I26" s="17">
-        <v>4.9</v>
+      <c r="G26" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H26" s="10">
+        <v>22</v>
+      </c>
+      <c r="I26" s="12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1872,26 +1922,26 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
+    <row r="27" spans="1:22" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="10">
         <v>1400</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="11">
         <v>5.8</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="10">
         <v>16</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="12">
         <v>4.8</v>
       </c>
       <c r="J27" s="1"/>
@@ -1908,26 +1958,26 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
+    <row r="28" spans="1:22" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="21">
         <v>3500</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="22">
         <v>3.2</v>
       </c>
-      <c r="H28" s="26">
-        <v>19</v>
-      </c>
-      <c r="I28" s="28">
+      <c r="H28" s="21">
+        <v>19</v>
+      </c>
+      <c r="I28" s="23">
         <v>4.7</v>
       </c>
       <c r="J28" s="1"/>
@@ -1944,8 +1994,268 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
+    <row r="32" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="4:9" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D34" s="35"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2300</v>
+      </c>
+      <c r="G35" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="H35" s="10">
+        <v>16</v>
+      </c>
+      <c r="I35" s="12">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1800</v>
+      </c>
+      <c r="G36" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H36" s="10">
+        <v>17</v>
+      </c>
+      <c r="I36" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1700</v>
+      </c>
+      <c r="G37" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="H37" s="10">
+        <v>20</v>
+      </c>
+      <c r="I37" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1200</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H38" s="10">
+        <v>13</v>
+      </c>
+      <c r="I38" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="10">
+        <v>800</v>
+      </c>
+      <c r="G39" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H39" s="10">
+        <v>8</v>
+      </c>
+      <c r="I39" s="12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1950</v>
+      </c>
+      <c r="G40" s="10">
+        <v>2</v>
+      </c>
+      <c r="H40" s="10">
+        <v>16</v>
+      </c>
+      <c r="I40" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="10">
+        <v>500</v>
+      </c>
+      <c r="G41" s="11">
+        <v>11.1</v>
+      </c>
+      <c r="H41" s="10">
+        <v>4</v>
+      </c>
+      <c r="I41" s="12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="10">
+        <v>2600</v>
+      </c>
+      <c r="G42" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H42" s="10">
+        <v>22</v>
+      </c>
+      <c r="I42" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1400</v>
+      </c>
+      <c r="G43" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="H43" s="10">
+        <v>16</v>
+      </c>
+      <c r="I43" s="12">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="21">
+        <v>3500</v>
+      </c>
+      <c r="G44" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="H44" s="21">
+        <v>19</v>
+      </c>
+      <c r="I44" s="23">
+        <v>4.7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <autoFilter ref="D33:I44" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="A10"/>
+        <filter val="A2"/>
+        <filter val="A3"/>
+        <filter val="A6"/>
+        <filter val="A8"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="11">
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:I2"/>
@@ -1954,5 +2264,6 @@
     <mergeCell ref="F17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/semestr-4/ТПР/ВыборБарбершопа.xlsx
+++ b/semestr-4/ТПР/ВыборБарбершопа.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemX\Documents\GitHub\Practic_MIREA\semestr-4\ТПР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Practic_MIREA\semestr-4\ТПР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F338DAD-637D-4944-A419-C315C28A9C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D868B23-0CFC-44D0-A708-2643463BBB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -126,13 +126,20 @@
   </si>
   <si>
     <t>Результат указания верхней/нижней границы: ('Средний чек (руб.)' &gt;= 1700 , 'Удалённость локации (км)' &lt; 4.30)</t>
+  </si>
+  <si>
+    <t>Результат отбора вариантов, удовлетворяющих заданным критериям:
+ главный критерий: Средний чек (руб.) &gt;= 1200, Рейтинг (от 1 до 5) &gt;= 4.6, Удалённость локации (км) &lt; 2.70</t>
+  </si>
+  <si>
+    <t>Результат лексикографической оптимизации: (Самая важная: Количество услуг)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +172,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -362,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,6 +478,17 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -480,14 +510,24 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,10 +833,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,18 +879,18 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -869,8 +909,8 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
@@ -886,15 +926,15 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
@@ -1552,10 +1592,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
       <c r="J16" s="1"/>
@@ -1576,18 +1616,18 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="40"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1606,8 +1646,8 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="7" t="s">
         <v>3</v>
       </c>
@@ -1995,33 +2035,33 @@
       <c r="V28" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="43"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="40"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="45"/>
     </row>
     <row r="34" spans="4:9" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="D34" s="35"/>
-      <c r="E34" s="37"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="7" t="s">
         <v>3</v>
       </c>
@@ -2233,6 +2273,190 @@
       </c>
       <c r="I44" s="23">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+    </row>
+    <row r="50" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+    </row>
+    <row r="51" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D51" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="44"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="45"/>
+    </row>
+    <row r="52" spans="4:9" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D52" s="40"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D53" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1800</v>
+      </c>
+      <c r="G53" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H53" s="10">
+        <v>17</v>
+      </c>
+      <c r="I53" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D54" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1950</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2</v>
+      </c>
+      <c r="H54" s="10">
+        <v>16</v>
+      </c>
+      <c r="I54" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="10">
+        <v>2600</v>
+      </c>
+      <c r="G55" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H55" s="10">
+        <v>22</v>
+      </c>
+      <c r="I55" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+    </row>
+    <row r="59" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+    </row>
+    <row r="60" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D60" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="44"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="45"/>
+    </row>
+    <row r="61" spans="4:9" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="D61" s="40"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D62" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="10">
+        <v>2600</v>
+      </c>
+      <c r="G62" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H62" s="10">
+        <v>22</v>
+      </c>
+      <c r="I62" s="12">
+        <v>4.9000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2250,7 +2474,15 @@
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
-  <mergeCells count="11">
+  <mergeCells count="19">
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="D58:I59"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="D48:I50"/>
     <mergeCell ref="N3:T3"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
